--- a/Memo.xlsx
+++ b/Memo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>QuestionNumber</t>
   </si>
@@ -27,19 +27,28 @@
     <t>Answers</t>
   </si>
   <si>
+    <t>Artificial Intelligence has a wide-ranging impact on various aspects of our lives</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence is perceived as including elements of imagination and it is based on futuristic ideas/the threat that AI might take over the world.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence is a discipline in computer science in which machines copy the way humans think and make decisions.</t>
+  </si>
+  <si>
+    <t>To highlight/show the rapid growth of Artificial Intelligence and its importance in businesses.</t>
+  </si>
+  <si>
+    <t>The words suggest that using Artificial Intelligence brings about amazing reforms/innovations.</t>
+  </si>
+  <si>
+    <t>Pretoria</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Telkom</t>
-  </si>
-  <si>
-    <t>Geek</t>
-  </si>
-  <si>
-    <t>Marking App</t>
+    <t>South Africa</t>
   </si>
 </sst>
 </file>
@@ -96,10 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,16 +390,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -429,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -437,7 +447,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
